--- a/biology/Zoologie/Gonyosoma_prasinum/Gonyosoma_prasinum.xlsx
+++ b/biology/Zoologie/Gonyosoma_prasinum/Gonyosoma_prasinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonyosoma prasinum  est une espèce de serpents de la famille des Colubridae[1].
-Ce serpent peut mordre mais il n'est pas dangereux pour les êtres humains[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonyosoma prasinum  est une espèce de serpents de la famille des Colubridae.
+Ce serpent peut mordre mais il n'est pas dangereux pour les êtres humains.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Viêt Nam ;
 au Laos ;
 en République populaire de Chine au Yunnan, au Guizhou, au Sichuan et à Hainan ;
@@ -551,9 +565,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonyosoma prasinum vit dans les forêts tropicales et forêts de bambou[3] jusqu'à 2500 mètres d'altitude, il aime l'humidité et lui arrive parfois de se cacher dans les trous d'eau des arbres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonyosoma prasinum vit dans les forêts tropicales et forêts de bambou jusqu'à 2500 mètres d'altitude, il aime l'humidité et lui arrive parfois de se cacher dans les trous d'eau des arbres.
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonyosoma prasinum est un serpent vert diurne et arboricole qui atteint à l’âge adulte à une taille maximale de 1,20 m.
 Comme chez certaines autres espèces de serpents, à l'âge adulte la femelle Gonyosoma prasinum est plus grande que le mâle.
@@ -615,9 +633,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se nourrit de petits mammifères, d'oiseaux, d'amphibiens et de lézards[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se nourrit de petits mammifères, d'oiseaux, d'amphibiens et de lézards.
 </t>
         </is>
       </c>
@@ -646,9 +666,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ovipare, la femelle pond de 5 à 11 œufs pour une gestation d'environ 2 mois. À l'éclosion les jeunes sont déjà de couleur verte et mesurent environ 20 cm[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ovipare, la femelle pond de 5 à 11 œufs pour une gestation d'environ 2 mois. À l'éclosion les jeunes sont déjà de couleur verte et mesurent environ 20 cm.
 </t>
         </is>
       </c>
@@ -677,7 +699,9 @@
           <t>Ménagerie du jardin des plantes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La ménagerie du jardin des plantes de Paris détient au moins un spécimen de Gonyosoma prasinum. (voir notamment la "Galerie") Facilement observable lors de la promenade du reptilarium, il est maintenu dans un terrarium/vivarium de plus d'un mètre de façade, joliment planté et boisé.
 </t>
